--- a/biology/Botanique/Gesse_tubéreuse/Gesse_tubéreuse.xlsx
+++ b/biology/Botanique/Gesse_tubéreuse/Gesse_tubéreuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gesse_tub%C3%A9reuse</t>
+          <t>Gesse_tubéreuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus tuberosus
 Lathyrus tuberosus, la gesse tubéreuse, est une espèce de plantes herbacées vivaces de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gesse_tub%C3%A9reuse</t>
+          <t>Gesse_tubéreuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gesse tubéreuse[1], anciennement appelée « macjonc », elle porte aussi comme noms vernaculaires : anotte[1], macusson[1], marcasson[1], souris de terre, châtaigne de terre, gland-de-terre[2], noix de terre, pois tubéreux, truffe de Lorraine[2], souris de Hollande. Cette plante ne doit pas être confondue avec le rongeur de l'espèce Apodemus sylvaticus appelé aussi souris de terre[3], ni avec le champignon truffe, cultivé dans la Meuse, et ainsi appelé " truffe de Lorraine ".
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gesse tubéreuse, anciennement appelée « macjonc », elle porte aussi comme noms vernaculaires : anotte, macusson, marcasson, souris de terre, châtaigne de terre, gland-de-terre, noix de terre, pois tubéreux, truffe de Lorraine, souris de Hollande. Cette plante ne doit pas être confondue avec le rongeur de l'espèce Apodemus sylvaticus appelé aussi souris de terre, ni avec le champignon truffe, cultivé dans la Meuse, et ainsi appelé " truffe de Lorraine ".
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gesse_tub%C3%A9reuse</t>
+          <t>Gesse_tubéreuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire d'Europe et d'Asie tempérée. On la trouve çà et là en France, sur sol calcaire et argileux, sur les talus et  bords des routes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire d'Europe et d'Asie tempérée. On la trouve çà et là en France, sur sol calcaire et argileux, sur les talus et  bords des routes.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gesse_tub%C3%A9reuse</t>
+          <t>Gesse_tubéreuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est une plante grimpante, à grandes fleurs roses ou pourpres. Les feuilles ont 2 folioles arrondies terminées par des vrilles. La tige principale peut mesurer de 1,20 m à 2 m de long. Les tubercules bruns et ridés peuvent atteindre 2 à 3 centimètres.
-Caractéristiques
-Organes reproducteurs
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante grimpante, à grandes fleurs roses ou pourpres. Les feuilles ont 2 folioles arrondies terminées par des vrilles. La tige principale peut mesurer de 1,20 m à 2 m de long. Les tubercules bruns et ridés peuvent atteindre 2 à 3 centimètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gesse_tubéreuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesse_tub%C3%A9reuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : juillet-octobre
 Inflorescence : racème simple
@@ -589,40 +642,7 @@
 Dissémination : épizoochore
 Habitat et répartition
 Habitat type : ourlets basophiles médiœuropéens, xérophiles
-Aire de répartition : eurasiatique[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gesse_tub%C3%A9reuse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gesse_tub%C3%A9reuse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois cultivée comme fourrage, elle était aussi utilisée en tant que légume.
-Une étude de 1983 montre le bon potentiel alimentaire de cette plante[6]. Ses tubercules cultivés sont riches en protéines et peuvent être préparés cuits en purée.
-Ses graines en gousse sont toxiques si elles sont consommées crues. Elles provoquèrent des intoxications durant les disettes à cause de la présence d'acide phytique.
-</t>
+Aire de répartition : eurasiatique</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gesse_tub%C3%A9reuse</t>
+          <t>Gesse_tubéreuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,12 +667,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois cultivée comme fourrage, elle était aussi utilisée en tant que légume.
+Une étude de 1983 montre le bon potentiel alimentaire de cette plante. Ses tubercules cultivés sont riches en protéines et peuvent être préparés cuits en purée.
+Ses graines en gousse sont toxiques si elles sont consommées crues. Elles provoquèrent des intoxications durant les disettes à cause de la présence d'acide phytique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gesse_tubéreuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesse_tub%C3%A9reuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du macjonc fut attribué au 27e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[7], généralement chaque 17 novembre du calendrier grégorien.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du macjonc fut attribué au 27e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 17 novembre du calendrier grégorien.
 </t>
         </is>
       </c>
